--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BEKAP\Data\Faks\Demonstrature\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zgrubisic\Desktop\GIT_repositorys\demonstrature\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="12570" windowHeight="11580"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="12570" windowHeight="11580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -453,8 +453,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
